--- a/WorldTemperature.xlsx
+++ b/WorldTemperature.xlsx
@@ -8,6 +8,10 @@
   <sheets>
     <sheet name="TemperatureByCity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Comparison" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Comparison1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Comparison2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Comparison3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Comparison4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -77633,4 +77637,76 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>